--- a/名单.xlsx
+++ b/名单.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2AAAFD-9533-410C-A18E-1EC4C208C15D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182B14F5-01DB-4A1C-A8ED-17DE9E42638A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
   <si>
     <t>请不要在上下左右有其他非名单内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,8 +42,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这是个人</t>
+    <t>姓名1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名2</t>
+  </si>
+  <si>
+    <t>姓名3</t>
+  </si>
+  <si>
+    <t>姓名4</t>
+  </si>
+  <si>
+    <t>姓名5</t>
+  </si>
+  <si>
+    <t>姓名6</t>
+  </si>
+  <si>
+    <t>姓名7</t>
+  </si>
+  <si>
+    <t>姓名8</t>
+  </si>
+  <si>
+    <t>姓名9</t>
+  </si>
+  <si>
+    <t>姓名10</t>
+  </si>
+  <si>
+    <t>姓名11</t>
+  </si>
+  <si>
+    <t>姓名12</t>
+  </si>
+  <si>
+    <t>姓名13</t>
+  </si>
+  <si>
+    <t>姓名14</t>
+  </si>
+  <si>
+    <t>姓名15</t>
+  </si>
+  <si>
+    <t>姓名16</t>
+  </si>
+  <si>
+    <t>姓名17</t>
+  </si>
+  <si>
+    <t>姓名18</t>
+  </si>
+  <si>
+    <t>姓名19</t>
+  </si>
+  <si>
+    <t>姓名20</t>
+  </si>
+  <si>
+    <t>姓名21</t>
+  </si>
+  <si>
+    <t>姓名22</t>
+  </si>
+  <si>
+    <t>姓名23</t>
+  </si>
+  <si>
+    <t>姓名24</t>
+  </si>
+  <si>
+    <t>姓名25</t>
+  </si>
+  <si>
+    <t>姓名26</t>
+  </si>
+  <si>
+    <t>姓名27</t>
+  </si>
+  <si>
+    <t>姓名28</t>
+  </si>
+  <si>
+    <t>姓名29</t>
+  </si>
+  <si>
+    <t>姓名30</t>
+  </si>
+  <si>
+    <t>姓名31</t>
+  </si>
+  <si>
+    <t>姓名32</t>
+  </si>
+  <si>
+    <t>姓名33</t>
+  </si>
+  <si>
+    <t>姓名34</t>
+  </si>
+  <si>
+    <t>姓名35</t>
+  </si>
+  <si>
+    <t>姓名36</t>
+  </si>
+  <si>
+    <t>姓名37</t>
+  </si>
+  <si>
+    <t>姓名38</t>
+  </si>
+  <si>
+    <t>姓名39</t>
+  </si>
+  <si>
+    <t>姓名40</t>
+  </si>
+  <si>
+    <t>姓名41</t>
+  </si>
+  <si>
+    <t>姓名42</t>
+  </si>
+  <si>
+    <t>姓名43</t>
+  </si>
+  <si>
+    <t>姓名44</t>
+  </si>
+  <si>
+    <t>姓名45</t>
+  </si>
+  <si>
+    <t>姓名46</t>
+  </si>
+  <si>
+    <t>姓名47</t>
+  </si>
+  <si>
+    <t>姓名48</t>
+  </si>
+  <si>
+    <t>姓名49</t>
+  </si>
+  <si>
+    <t>姓名50</t>
+  </si>
+  <si>
+    <t>姓名51</t>
+  </si>
+  <si>
+    <t>姓名52</t>
+  </si>
+  <si>
+    <t>姓名53</t>
+  </si>
+  <si>
+    <t>姓名54</t>
   </si>
 </sst>
 </file>
@@ -370,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection sqref="A1:A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -389,7 +548,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -400,7 +559,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -411,7 +570,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -419,7 +578,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -427,7 +586,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -435,7 +594,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -443,7 +602,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -451,7 +610,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -459,7 +618,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -467,7 +626,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -475,7 +634,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -483,7 +642,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -491,7 +650,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -499,7 +658,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -507,7 +666,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -515,7 +674,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -523,7 +682,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -531,7 +690,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -539,7 +698,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -547,7 +706,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -555,7 +714,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -563,7 +722,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -571,7 +730,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -579,7 +738,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -587,7 +746,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -595,7 +754,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -603,7 +762,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -611,7 +770,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -619,7 +778,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -627,7 +786,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -635,7 +794,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -643,7 +802,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -651,7 +810,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -659,7 +818,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -667,7 +826,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -675,7 +834,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
@@ -683,7 +842,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -691,7 +850,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
@@ -699,7 +858,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
@@ -707,7 +866,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
@@ -715,7 +874,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
@@ -723,7 +882,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
@@ -731,7 +890,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
@@ -739,7 +898,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -747,7 +906,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -755,7 +914,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -763,7 +922,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -771,7 +930,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
@@ -779,7 +938,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -787,7 +946,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
@@ -795,7 +954,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
         <v>2</v>
@@ -803,7 +962,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
@@ -811,7 +970,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
